--- a/database/AN_ep/expdata/2006.xlsx
+++ b/database/AN_ep/expdata/2006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Documents\GitHub\jam3d\database\AN_ep\expdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68D9C951-160A-4E03-A32E-C3AC07E2024B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E656FF-1806-4E6A-9CB2-43EAAF7A03B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1434" yWindow="1434" windowWidth="9870" windowHeight="8172" xr2:uid="{38EF51EA-038B-4D5A-8871-E93526893F31}"/>
+    <workbookView xWindow="4230" yWindow="1428" windowWidth="9870" windowHeight="8172" xr2:uid="{38EF51EA-038B-4D5A-8871-E93526893F31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9C8159-74AC-4531-8A64-3D91487C0AF4}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -478,13 +478,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F2">
         <v>4.5999999999999996</v>
@@ -510,13 +510,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F3">
         <v>4.5999999999999996</v>
@@ -542,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F4">
         <v>4.5999999999999996</v>
@@ -574,13 +574,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F5">
         <v>4.5999999999999996</v>
@@ -606,13 +606,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F6">
         <v>4.5999999999999996</v>
@@ -638,13 +638,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F7">
         <v>4.5999999999999996</v>
@@ -670,13 +670,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F8">
         <v>4.5999999999999996</v>
@@ -702,13 +702,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F9">
         <v>4.5999999999999996</v>
@@ -734,13 +734,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F10">
         <v>4.5999999999999996</v>
@@ -766,13 +766,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F11">
         <v>4.5999999999999996</v>
@@ -798,13 +798,13 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F12">
         <v>4.5999999999999996</v>
@@ -830,13 +830,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F13">
         <v>4.5999999999999996</v>
@@ -862,13 +862,13 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F14">
         <v>4.5999999999999996</v>
@@ -894,13 +894,13 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F15">
         <v>4.5999999999999996</v>
@@ -926,13 +926,13 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F16">
         <v>4.5999999999999996</v>

--- a/database/AN_ep/expdata/2006.xlsx
+++ b/database/AN_ep/expdata/2006.xlsx
@@ -138,12 +138,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -171,7 +175,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -210,9 +214,9 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -224,7 +228,7 @@
       <c r="E2" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -244,7 +248,7 @@
       <c r="A3" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -256,7 +260,7 @@
       <c r="E3" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -276,7 +280,7 @@
       <c r="A4" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -288,7 +292,7 @@
       <c r="E4" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -308,7 +312,7 @@
       <c r="A5" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -320,7 +324,7 @@
       <c r="E5" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -340,7 +344,7 @@
       <c r="A6" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -352,7 +356,7 @@
       <c r="E6" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -372,7 +376,7 @@
       <c r="A7" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -384,7 +388,7 @@
       <c r="E7" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -404,7 +408,7 @@
       <c r="A8" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -416,7 +420,7 @@
       <c r="E8" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -436,7 +440,7 @@
       <c r="A9" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -448,7 +452,7 @@
       <c r="E9" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -468,7 +472,7 @@
       <c r="A10" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -480,7 +484,7 @@
       <c r="E10" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -500,7 +504,7 @@
       <c r="A11" s="1" t="n">
         <v>0.45</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -512,7 +516,7 @@
       <c r="E11" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -532,7 +536,7 @@
       <c r="A12" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -544,7 +548,7 @@
       <c r="E12" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -564,7 +568,7 @@
       <c r="A13" s="1" t="n">
         <v>0.55</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -576,7 +580,7 @@
       <c r="E13" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -596,7 +600,7 @@
       <c r="A14" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="n">
@@ -608,7 +612,7 @@
       <c r="E14" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -628,7 +632,7 @@
       <c r="A15" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="n">
@@ -640,7 +644,7 @@
       <c r="E15" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -660,7 +664,7 @@
       <c r="A16" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="n">
@@ -672,7 +676,7 @@
       <c r="E16" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="3" t="n">
         <v>4.6</v>
       </c>
       <c r="G16" s="1" t="s">

--- a/database/AN_ep/expdata/2006.xlsx
+++ b/database/AN_ep/expdata/2006.xlsx
@@ -138,16 +138,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -175,7 +171,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -214,9 +210,9 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -228,7 +224,7 @@
       <c r="E2" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -248,7 +244,7 @@
       <c r="A3" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -260,7 +256,7 @@
       <c r="E3" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -280,7 +276,7 @@
       <c r="A4" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -292,7 +288,7 @@
       <c r="E4" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -312,7 +308,7 @@
       <c r="A5" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -324,7 +320,7 @@
       <c r="E5" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -344,7 +340,7 @@
       <c r="A6" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -356,7 +352,7 @@
       <c r="E6" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -376,7 +372,7 @@
       <c r="A7" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -388,7 +384,7 @@
       <c r="E7" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -408,7 +404,7 @@
       <c r="A8" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -420,7 +416,7 @@
       <c r="E8" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -440,7 +436,7 @@
       <c r="A9" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -452,7 +448,7 @@
       <c r="E9" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -472,7 +468,7 @@
       <c r="A10" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -484,7 +480,7 @@
       <c r="E10" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -504,7 +500,7 @@
       <c r="A11" s="1" t="n">
         <v>0.45</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -516,7 +512,7 @@
       <c r="E11" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -536,7 +532,7 @@
       <c r="A12" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -548,7 +544,7 @@
       <c r="E12" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -568,7 +564,7 @@
       <c r="A13" s="1" t="n">
         <v>0.55</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -580,7 +576,7 @@
       <c r="E13" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -600,7 +596,7 @@
       <c r="A14" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="n">
@@ -612,7 +608,7 @@
       <c r="E14" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -632,7 +628,7 @@
       <c r="A15" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="n">
@@ -644,7 +640,7 @@
       <c r="E15" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -664,7 +660,7 @@
       <c r="A16" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="n">
@@ -676,7 +672,7 @@
       <c r="E16" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="G16" s="1" t="s">
